--- a/Excel-2013/Excel Unit C/EX C-QST Advertising Expenses 64.xlsx
+++ b/Excel-2013/Excel Unit C/EX C-QST Advertising Expenses 64.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Github_MS_Office_2013\microsoftOffice2013\Excel-2013\Excel Unit C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{051F2DEA-1E48-4DFD-BB7C-5FE888848721}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA0F301-20D2-4DB6-BA04-437A7BCD3117}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,13 +244,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -617,19 +617,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="5">
@@ -655,28 +655,28 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="13"/>
@@ -1934,9 +1934,40 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="halfwidthKatakana" alignment="noControl"/>
+  <conditionalFormatting sqref="H4:H30">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{24FD6437-203D-4C96-9411-52D5C6D6FC13}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{24FD6437-203D-4C96-9411-52D5C6D6FC13}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H4:H30</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
